--- a/Peaks-dataset-article/redes-ensemble/Teste04/content/results/metrics_6_9.xlsx
+++ b/Peaks-dataset-article/redes-ensemble/Teste04/content/results/metrics_6_9.xlsx
@@ -518,661 +518,661 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_0</t>
+          <t>model_6_9_24</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9963161129786937</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8324416249191061</v>
       </c>
       <c r="D2" t="n">
-        <v>0.998849363687711</v>
+        <v>0.9797926422683838</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9390343701449861</v>
       </c>
       <c r="F2" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9658859511300899</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.02463416947421513</v>
       </c>
       <c r="H2" t="n">
-        <v>1.430830212490227</v>
+        <v>1.120463625701312</v>
       </c>
       <c r="I2" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.04277514515007208</v>
       </c>
       <c r="J2" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.09962783840356589</v>
       </c>
       <c r="K2" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.07120127876300913</v>
       </c>
       <c r="L2" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.2094762821159607</v>
       </c>
       <c r="M2" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.156952761919678</v>
       </c>
       <c r="N2" t="n">
-        <v>1.003895798958895</v>
+        <v>1.004210156595779</v>
       </c>
       <c r="O2" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.1636345659316061</v>
       </c>
       <c r="P2" t="n">
-        <v>294.0599074991059</v>
+        <v>97.40724159359857</v>
       </c>
       <c r="Q2" t="n">
-        <v>470.796902104995</v>
+        <v>152.2566537126676</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_22</t>
+          <t>model_6_9_23</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9963268224738951</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8323104621273003</v>
       </c>
       <c r="D3" t="n">
-        <v>0.998849363687711</v>
+        <v>0.9800730228581745</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9397097836073011</v>
       </c>
       <c r="F3" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9662923748334491</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.02456255503049048</v>
       </c>
       <c r="H3" t="n">
-        <v>1.430830212490227</v>
+        <v>1.121340711894066</v>
       </c>
       <c r="I3" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.04218163259960139</v>
       </c>
       <c r="J3" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.09852410202883929</v>
       </c>
       <c r="K3" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.07035300984280182</v>
       </c>
       <c r="L3" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.2129728165270642</v>
       </c>
       <c r="M3" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.1567244557511382</v>
       </c>
       <c r="N3" t="n">
-        <v>1.003895798958895</v>
+        <v>1.004197917172691</v>
       </c>
       <c r="O3" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.1633965402968126</v>
       </c>
       <c r="P3" t="n">
-        <v>294.0599074991059</v>
+        <v>97.41306429785615</v>
       </c>
       <c r="Q3" t="n">
-        <v>470.796902104995</v>
+        <v>152.2624764169252</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_21</t>
+          <t>model_6_9_22</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9963360756565238</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8321700432044827</v>
       </c>
       <c r="D4" t="n">
-        <v>0.998849363687711</v>
+        <v>0.9803640278397995</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9404161040325255</v>
       </c>
       <c r="F4" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9667165059868735</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.02450067895564542</v>
       </c>
       <c r="H4" t="n">
-        <v>1.430830212490227</v>
+        <v>1.122279693877517</v>
       </c>
       <c r="I4" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.04156563022592533</v>
       </c>
       <c r="J4" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.09736985860754187</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.06946778274465809</v>
       </c>
       <c r="L4" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.2166543367739292</v>
       </c>
       <c r="M4" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.1565269272542122</v>
       </c>
       <c r="N4" t="n">
-        <v>1.003895798958895</v>
+        <v>1.00418734210683</v>
       </c>
       <c r="O4" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.1631906026028321</v>
       </c>
       <c r="P4" t="n">
-        <v>294.0599074991059</v>
+        <v>97.41810889868023</v>
       </c>
       <c r="Q4" t="n">
-        <v>470.796902104995</v>
+        <v>152.2675210177493</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_20</t>
+          <t>model_6_9_21</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9963435630695295</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8320195450046235</v>
       </c>
       <c r="D5" t="n">
-        <v>0.998849363687711</v>
+        <v>0.9806659217186675</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9411547063302558</v>
       </c>
       <c r="F5" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9671587840001424</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.02445061059039971</v>
       </c>
       <c r="H5" t="n">
-        <v>1.430830212490227</v>
+        <v>1.123286076032956</v>
       </c>
       <c r="I5" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.04092657812124093</v>
       </c>
       <c r="J5" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.09616286131188903</v>
       </c>
       <c r="K5" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.06854468035263186</v>
       </c>
       <c r="L5" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.2205402400678853</v>
       </c>
       <c r="M5" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.1563669101517316</v>
       </c>
       <c r="N5" t="n">
-        <v>1.003895798958895</v>
+        <v>1.004178785063395</v>
       </c>
       <c r="O5" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.1630237732410179</v>
       </c>
       <c r="P5" t="n">
-        <v>294.0599074991059</v>
+        <v>97.42220018070118</v>
       </c>
       <c r="Q5" t="n">
-        <v>470.796902104995</v>
+        <v>152.2716122997702</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_19</t>
+          <t>model_6_9_20</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9963489094609705</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8318582152215477</v>
       </c>
       <c r="D6" t="n">
-        <v>0.998849363687711</v>
+        <v>0.9809786584710709</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9419259401203417</v>
       </c>
       <c r="F6" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9676192952936867</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.02441485924621632</v>
       </c>
       <c r="H6" t="n">
-        <v>1.430830212490227</v>
+        <v>1.12436488903524</v>
       </c>
       <c r="I6" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.04026457370901199</v>
       </c>
       <c r="J6" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.09490253880570351</v>
       </c>
       <c r="K6" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.06758352229396222</v>
       </c>
       <c r="L6" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.2246381241578521</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.1562525495670913</v>
       </c>
       <c r="N6" t="n">
-        <v>1.003895798958895</v>
+        <v>1.004172674901748</v>
       </c>
       <c r="O6" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.1629045440895303</v>
       </c>
       <c r="P6" t="n">
-        <v>294.0599074991059</v>
+        <v>97.42512669307746</v>
       </c>
       <c r="Q6" t="n">
-        <v>470.796902104995</v>
+        <v>152.2745388121465</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_18</t>
+          <t>model_6_9_19</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.996351761032639</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8316850638669597</v>
       </c>
       <c r="D7" t="n">
-        <v>0.998849363687711</v>
+        <v>0.9813024361910103</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9427314418498369</v>
       </c>
       <c r="F7" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9680987639038503</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.02439579077333871</v>
       </c>
       <c r="H7" t="n">
-        <v>1.430830212490227</v>
+        <v>1.125522752940658</v>
       </c>
       <c r="I7" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.03957919766179645</v>
       </c>
       <c r="J7" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.09358621686609926</v>
       </c>
       <c r="K7" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.06658279739318741</v>
       </c>
       <c r="L7" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.2289553070371534</v>
       </c>
       <c r="M7" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.156191519530795</v>
       </c>
       <c r="N7" t="n">
-        <v>1.003895798958895</v>
+        <v>1.004169415962698</v>
       </c>
       <c r="O7" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.1628409158782393</v>
       </c>
       <c r="P7" t="n">
-        <v>294.0599074991059</v>
+        <v>97.42668934170763</v>
       </c>
       <c r="Q7" t="n">
-        <v>470.796902104995</v>
+        <v>152.2761014607767</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_17</t>
+          <t>model_6_9_18</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9963516879655958</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8314991760562467</v>
       </c>
       <c r="D8" t="n">
-        <v>0.998849363687711</v>
+        <v>0.9816369432903752</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9435724502133445</v>
       </c>
       <c r="F8" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9685976849305744</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.02439627937299314</v>
       </c>
       <c r="H8" t="n">
-        <v>1.430830212490227</v>
+        <v>1.126765785586831</v>
       </c>
       <c r="I8" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.03887110955254913</v>
       </c>
       <c r="J8" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.09221187126293182</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.0655414723004089</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.2335113549185621</v>
       </c>
       <c r="M8" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.1561930836272629</v>
       </c>
       <c r="N8" t="n">
-        <v>1.003895798958895</v>
+        <v>1.00416949946789</v>
       </c>
       <c r="O8" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.162842546561532</v>
       </c>
       <c r="P8" t="n">
-        <v>294.0599074991059</v>
+        <v>97.42664928604671</v>
       </c>
       <c r="Q8" t="n">
-        <v>470.796902104995</v>
+        <v>152.2760614051157</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_16</t>
+          <t>model_6_9_17</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9963481387076631</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8312993919004159</v>
       </c>
       <c r="D9" t="n">
-        <v>0.998849363687711</v>
+        <v>0.9819822631805527</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9444487424896311</v>
       </c>
       <c r="F9" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9691158221641446</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.02442001327713162</v>
       </c>
       <c r="H9" t="n">
-        <v>1.430830212490227</v>
+        <v>1.128101743156793</v>
       </c>
       <c r="I9" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.038140132815178</v>
       </c>
       <c r="J9" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.09077986595922552</v>
       </c>
       <c r="K9" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.06446004002171325</v>
       </c>
       <c r="L9" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.2383173331270548</v>
       </c>
       <c r="M9" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.1562690413265904</v>
       </c>
       <c r="N9" t="n">
-        <v>1.003895798958895</v>
+        <v>1.004173555762671</v>
       </c>
       <c r="O9" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.162921737937374</v>
       </c>
       <c r="P9" t="n">
-        <v>294.0599074991059</v>
+        <v>97.42470453320128</v>
       </c>
       <c r="Q9" t="n">
-        <v>470.796902104995</v>
+        <v>152.2741166522703</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_15</t>
+          <t>model_6_9_16</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9963405864121601</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8310845998384053</v>
       </c>
       <c r="D10" t="n">
-        <v>0.998849363687711</v>
+        <v>0.9823377431417178</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9453619442412492</v>
       </c>
       <c r="F10" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9696535995592398</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.02447051551193583</v>
       </c>
       <c r="H10" t="n">
-        <v>1.430830212490227</v>
+        <v>1.129538058664484</v>
       </c>
       <c r="I10" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.03738764913380139</v>
       </c>
       <c r="J10" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.08928754451915465</v>
       </c>
       <c r="K10" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.06333761569833157</v>
       </c>
       <c r="L10" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.2433853826443221</v>
       </c>
       <c r="M10" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.156430545329024</v>
       </c>
       <c r="N10" t="n">
-        <v>1.003895798958895</v>
+        <v>1.004182186957531</v>
       </c>
       <c r="O10" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.1630901174995505</v>
       </c>
       <c r="P10" t="n">
-        <v>294.0599074991059</v>
+        <v>97.42057266929902</v>
       </c>
       <c r="Q10" t="n">
-        <v>470.796902104995</v>
+        <v>152.269984788368</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_14</t>
+          <t>model_6_9_15</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9963284052436064</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8308534436102754</v>
       </c>
       <c r="D11" t="n">
-        <v>0.998849363687711</v>
+        <v>0.9827037920067399</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9463129334970971</v>
       </c>
       <c r="F11" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9702114247895338</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.02455197104214306</v>
       </c>
       <c r="H11" t="n">
-        <v>1.430830212490227</v>
+        <v>1.131083801426366</v>
       </c>
       <c r="I11" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.03661279308674685</v>
       </c>
       <c r="J11" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.08773347209949033</v>
       </c>
       <c r="K11" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.0621733484524628</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.2487306472411498</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.1566906858819089</v>
       </c>
       <c r="N11" t="n">
-        <v>1.003895798958895</v>
+        <v>1.004196108293021</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.163361332774337</v>
       </c>
       <c r="P11" t="n">
-        <v>294.0599074991059</v>
+        <v>97.41392628223085</v>
       </c>
       <c r="Q11" t="n">
-        <v>470.796902104995</v>
+        <v>152.2633384012999</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_13</t>
+          <t>model_6_9_14</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9963108804342328</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8306045167188362</v>
       </c>
       <c r="D12" t="n">
-        <v>0.998849363687711</v>
+        <v>0.9830790758237643</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9473020545585855</v>
       </c>
       <c r="F12" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9707890360860987</v>
       </c>
       <c r="G12" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.02466915952311894</v>
       </c>
       <c r="H12" t="n">
-        <v>1.430830212490227</v>
+        <v>1.132748376695623</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.03581838839718287</v>
       </c>
       <c r="J12" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.08611708605525707</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.06096778463621179</v>
       </c>
       <c r="L12" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.2543703070240948</v>
       </c>
       <c r="M12" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.1570641891811082</v>
       </c>
       <c r="N12" t="n">
-        <v>1.003895798958895</v>
+        <v>1.004216136646591</v>
       </c>
       <c r="O12" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.1637507368822416</v>
       </c>
       <c r="P12" t="n">
-        <v>294.0599074991059</v>
+        <v>97.40440283560881</v>
       </c>
       <c r="Q12" t="n">
-        <v>470.796902104995</v>
+        <v>152.2538149546778</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_23</t>
+          <t>model_6_9_13</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9962871969297217</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8303362982561806</v>
       </c>
       <c r="D13" t="n">
-        <v>0.998849363687711</v>
+        <v>0.9834635459015691</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9483300776844406</v>
       </c>
       <c r="F13" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9713863908002164</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.02482753122683751</v>
       </c>
       <c r="H13" t="n">
-        <v>1.430830212490227</v>
+        <v>1.134541954790433</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.03500453813519473</v>
       </c>
       <c r="J13" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.08443712765736333</v>
       </c>
       <c r="K13" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.0597210132640279</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.2603220337865144</v>
       </c>
       <c r="M13" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.1575675449667142</v>
       </c>
       <c r="N13" t="n">
-        <v>1.003895798958895</v>
+        <v>1.00424320350889</v>
       </c>
       <c r="O13" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.164275521565731</v>
       </c>
       <c r="P13" t="n">
-        <v>294.0599074991059</v>
+        <v>97.39160422287112</v>
       </c>
       <c r="Q13" t="n">
-        <v>470.796902104995</v>
+        <v>152.2410163419402</v>
       </c>
     </row>
     <row r="14">
@@ -1182,712 +1182,712 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.996256442573751</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.830046969146328</v>
       </c>
       <c r="D14" t="n">
-        <v>0.998849363687711</v>
+        <v>0.9838561679785091</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9493965214514974</v>
       </c>
       <c r="F14" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9720030442403585</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.02503318574682359</v>
       </c>
       <c r="H14" t="n">
-        <v>1.430830212490227</v>
+        <v>1.136476699880255</v>
       </c>
       <c r="I14" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.03417343163659747</v>
       </c>
       <c r="J14" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.0826943836302203</v>
       </c>
       <c r="K14" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.0584339624756807</v>
       </c>
       <c r="L14" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.2666014362276466</v>
       </c>
       <c r="M14" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.158218790751363</v>
       </c>
       <c r="N14" t="n">
-        <v>1.003895798958895</v>
+        <v>1.004278351344285</v>
       </c>
       <c r="O14" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.1649544922316969</v>
       </c>
       <c r="P14" t="n">
-        <v>294.0599074991059</v>
+        <v>97.37510580899425</v>
       </c>
       <c r="Q14" t="n">
-        <v>470.796902104995</v>
+        <v>152.2245179280633</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_10</t>
+          <t>model_6_9_11</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9962175792290784</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8297346702562494</v>
       </c>
       <c r="D15" t="n">
-        <v>0.998849363687711</v>
+        <v>0.9842559222882735</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9505017013980759</v>
       </c>
       <c r="F15" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9726384111301977</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.02529306511159907</v>
       </c>
       <c r="H15" t="n">
-        <v>1.430830212490227</v>
+        <v>1.138565043996215</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.0333272275533298</v>
       </c>
       <c r="J15" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.0808883383324611</v>
       </c>
       <c r="K15" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.05710785383308792</v>
       </c>
       <c r="L15" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.2732310005720594</v>
       </c>
       <c r="M15" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.1590379360768967</v>
       </c>
       <c r="N15" t="n">
-        <v>1.003895798958895</v>
+        <v>1.004322766595339</v>
       </c>
       <c r="O15" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.1658085102696031</v>
       </c>
       <c r="P15" t="n">
-        <v>294.0599074991059</v>
+        <v>97.35445005416712</v>
       </c>
       <c r="Q15" t="n">
-        <v>470.796902104995</v>
+        <v>152.2038621732361</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_9</t>
+          <t>model_6_9_10</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9961695046176476</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.829397281898835</v>
       </c>
       <c r="D16" t="n">
-        <v>0.998849363687711</v>
+        <v>0.9846617905106568</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9516460266735953</v>
       </c>
       <c r="F16" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9732922433073015</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.02561454025959997</v>
       </c>
       <c r="H16" t="n">
-        <v>1.430830212490227</v>
+        <v>1.140821161495775</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.0324680814762016</v>
       </c>
       <c r="J16" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.07901832314682786</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.05574320528950053</v>
       </c>
       <c r="L16" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.2802323828145126</v>
       </c>
       <c r="M16" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.1600454318610812</v>
       </c>
       <c r="N16" t="n">
-        <v>1.003895798958895</v>
+        <v>1.004377709008403</v>
       </c>
       <c r="O16" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.1668588972351241</v>
       </c>
       <c r="P16" t="n">
-        <v>294.0599074991059</v>
+        <v>97.32919021968991</v>
       </c>
       <c r="Q16" t="n">
-        <v>470.796902104995</v>
+        <v>152.1786023387589</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_8</t>
+          <t>model_6_9_9</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.996110903785664</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8290325315470335</v>
       </c>
       <c r="D17" t="n">
-        <v>0.998849363687711</v>
+        <v>0.985072240175781</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9528282073786335</v>
       </c>
       <c r="F17" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9739631671798011</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.02600640429290586</v>
       </c>
       <c r="H17" t="n">
-        <v>1.430830212490227</v>
+        <v>1.143260248777793</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.03159923735339897</v>
       </c>
       <c r="J17" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.0770864459805385</v>
       </c>
       <c r="K17" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.0543428837428914</v>
       </c>
       <c r="L17" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.2876212050734429</v>
       </c>
       <c r="M17" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.1612650126124878</v>
       </c>
       <c r="N17" t="n">
-        <v>1.003895798958895</v>
+        <v>1.004444681387813</v>
       </c>
       <c r="O17" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.1681303980639983</v>
       </c>
       <c r="P17" t="n">
-        <v>294.0599074991059</v>
+        <v>97.29882490466855</v>
       </c>
       <c r="Q17" t="n">
-        <v>470.796902104995</v>
+        <v>152.1482370237376</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_7</t>
+          <t>model_6_9_8</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.996040299911201</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8286378426835381</v>
       </c>
       <c r="D18" t="n">
-        <v>0.998849363687711</v>
+        <v>0.985485374570349</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9540471138532757</v>
       </c>
       <c r="F18" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9746499135481582</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.02647853272654154</v>
       </c>
       <c r="H18" t="n">
-        <v>1.430830212490227</v>
+        <v>1.145899535025362</v>
       </c>
       <c r="I18" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.03072471016736871</v>
       </c>
       <c r="J18" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.07509455288317346</v>
       </c>
       <c r="K18" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.05290953820834807</v>
       </c>
       <c r="L18" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.2954225763245234</v>
       </c>
       <c r="M18" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.1627222563958033</v>
       </c>
       <c r="N18" t="n">
-        <v>1.003895798958895</v>
+        <v>1.004525371530056</v>
       </c>
       <c r="O18" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.16964967973208</v>
       </c>
       <c r="P18" t="n">
-        <v>294.0599074991059</v>
+        <v>97.2628419201553</v>
       </c>
       <c r="Q18" t="n">
-        <v>470.796902104995</v>
+        <v>152.1122540392243</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_6</t>
+          <t>model_6_9_7</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9959560668101072</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8282104111676738</v>
       </c>
       <c r="D19" t="n">
-        <v>0.998849363687711</v>
+        <v>0.985899246176548</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9553011234194945</v>
       </c>
       <c r="F19" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9753506306246932</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.0270417998614134</v>
       </c>
       <c r="H19" t="n">
-        <v>1.430830212490227</v>
+        <v>1.148757771540088</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.02984862244408588</v>
       </c>
       <c r="J19" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.07304529557677163</v>
       </c>
       <c r="K19" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.05144703365221581</v>
       </c>
       <c r="L19" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.3036653102632761</v>
       </c>
       <c r="M19" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.164443910989168</v>
       </c>
       <c r="N19" t="n">
-        <v>1.003895798958895</v>
+        <v>1.004621637931306</v>
       </c>
       <c r="O19" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.1714446287258006</v>
       </c>
       <c r="P19" t="n">
-        <v>294.0599074991059</v>
+        <v>97.22074293420098</v>
       </c>
       <c r="Q19" t="n">
-        <v>470.796902104995</v>
+        <v>152.07015505327</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_5</t>
+          <t>model_6_9_6</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9958563635098426</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8277471428299302</v>
       </c>
       <c r="D20" t="n">
-        <v>0.998849363687711</v>
+        <v>0.9863110854665855</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9565880898071021</v>
       </c>
       <c r="F20" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9760633138804301</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.027708516289374</v>
       </c>
       <c r="H20" t="n">
-        <v>1.430830212490227</v>
+        <v>1.151855649047733</v>
       </c>
       <c r="I20" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.02897683674880457</v>
       </c>
       <c r="J20" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.07094218141883853</v>
       </c>
       <c r="K20" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.0499595538354704</v>
       </c>
       <c r="L20" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.3123761614201612</v>
       </c>
       <c r="M20" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.1664587525165739</v>
       </c>
       <c r="N20" t="n">
-        <v>1.003895798958895</v>
+        <v>1.00473558456018</v>
       </c>
       <c r="O20" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.1735452462283251</v>
       </c>
       <c r="P20" t="n">
-        <v>294.0599074991059</v>
+        <v>97.17203093154251</v>
       </c>
       <c r="Q20" t="n">
-        <v>470.796902104995</v>
+        <v>152.0214430506115</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_4</t>
+          <t>model_6_9_5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9957391225384379</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8272445889890419</v>
       </c>
       <c r="D21" t="n">
-        <v>0.998849363687711</v>
+        <v>0.9867180381556111</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9579042780529328</v>
       </c>
       <c r="F21" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9767850133015441</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.02849250720500267</v>
       </c>
       <c r="H21" t="n">
-        <v>1.430830212490227</v>
+        <v>1.155216228895801</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.02811539506140129</v>
       </c>
       <c r="J21" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.06879131395177333</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.04845325589171735</v>
       </c>
       <c r="L21" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.3215695021454517</v>
       </c>
       <c r="M21" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.1687972369590293</v>
       </c>
       <c r="N21" t="n">
-        <v>1.003895798958895</v>
+        <v>1.004869574241785</v>
       </c>
       <c r="O21" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.1759832847948259</v>
       </c>
       <c r="P21" t="n">
-        <v>294.0599074991059</v>
+        <v>97.11622826272152</v>
       </c>
       <c r="Q21" t="n">
-        <v>470.796902104995</v>
+        <v>151.9656403817905</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_3</t>
+          <t>model_6_9_4</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9956020056241028</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8266989080017666</v>
       </c>
       <c r="D22" t="n">
-        <v>0.998849363687711</v>
+        <v>0.9871166577863594</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9592463570050861</v>
       </c>
       <c r="F22" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9775125425835</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.02940940864252641</v>
       </c>
       <c r="H22" t="n">
-        <v>1.430830212490227</v>
+        <v>1.158865200170341</v>
       </c>
       <c r="I22" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.02727159287848429</v>
       </c>
       <c r="J22" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.06659813682413687</v>
       </c>
       <c r="K22" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.0469347901296986</v>
       </c>
       <c r="L22" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.3312946390475002</v>
       </c>
       <c r="M22" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.1714917159588953</v>
       </c>
       <c r="N22" t="n">
-        <v>1.003895798958895</v>
+        <v>1.00502627928674</v>
       </c>
       <c r="O22" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.1787924733440567</v>
       </c>
       <c r="P22" t="n">
-        <v>294.0599074991059</v>
+        <v>97.05288126795787</v>
       </c>
       <c r="Q22" t="n">
-        <v>470.796902104995</v>
+        <v>151.9022933870269</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_2</t>
+          <t>model_6_9_3</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9954423953637633</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8261059136139448</v>
       </c>
       <c r="D23" t="n">
-        <v>0.998849363687711</v>
+        <v>0.9875029755121607</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9606089418983654</v>
       </c>
       <c r="F23" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9782417987016473</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.03047672318835408</v>
       </c>
       <c r="H23" t="n">
-        <v>1.430830212490227</v>
+        <v>1.162830556372194</v>
       </c>
       <c r="I23" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.02645383149598815</v>
       </c>
       <c r="J23" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.06437144962543814</v>
       </c>
       <c r="K23" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.04541272019435198</v>
       </c>
       <c r="L23" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.3415696253734704</v>
       </c>
       <c r="M23" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.17457583792826</v>
       </c>
       <c r="N23" t="n">
-        <v>1.003895798958895</v>
+        <v>1.005208691012842</v>
       </c>
       <c r="O23" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.1820078927706698</v>
       </c>
       <c r="P23" t="n">
-        <v>294.0599074991059</v>
+        <v>96.98158412177348</v>
       </c>
       <c r="Q23" t="n">
-        <v>470.796902104995</v>
+        <v>151.8309962408425</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_1</t>
+          <t>model_6_9_2</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9952573332472606</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.825460944077492</v>
       </c>
       <c r="D24" t="n">
-        <v>0.998849363687711</v>
+        <v>0.9878717896487972</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9619851484158245</v>
       </c>
       <c r="F24" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9789675938024436</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.03171423441354065</v>
       </c>
       <c r="H24" t="n">
-        <v>1.430830212490227</v>
+        <v>1.167143470632265</v>
       </c>
       <c r="I24" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.02567312189320136</v>
       </c>
       <c r="J24" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.0621225024586916</v>
       </c>
       <c r="K24" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.04389787393574191</v>
       </c>
       <c r="L24" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.3524367819628511</v>
       </c>
       <c r="M24" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.1780849078769469</v>
       </c>
       <c r="N24" t="n">
-        <v>1.003895798958895</v>
+        <v>1.005420190574559</v>
       </c>
       <c r="O24" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.1856663510918486</v>
       </c>
       <c r="P24" t="n">
-        <v>294.0599074991059</v>
+        <v>96.90197932751508</v>
       </c>
       <c r="Q24" t="n">
-        <v>470.796902104995</v>
+        <v>151.7513914465841</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_11</t>
+          <t>model_6_9_1</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9950435142200271</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.824758859251489</v>
       </c>
       <c r="D25" t="n">
-        <v>0.998849363687711</v>
+        <v>0.9882176487404809</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9633667960158895</v>
       </c>
       <c r="F25" t="n">
-        <v>0.999838076967566</v>
+        <v>0.979683903185476</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.03314404323319723</v>
       </c>
       <c r="H25" t="n">
-        <v>1.430830212490227</v>
+        <v>1.171838315096551</v>
       </c>
       <c r="I25" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.02494100376847004</v>
       </c>
       <c r="J25" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.05986466367055305</v>
       </c>
       <c r="K25" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.04240282583235368</v>
       </c>
       <c r="L25" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.3639269562584118</v>
       </c>
       <c r="M25" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.1820550555002448</v>
       </c>
       <c r="N25" t="n">
-        <v>1.003895798958895</v>
+        <v>1.005664555177112</v>
       </c>
       <c r="O25" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.1898055161188089</v>
       </c>
       <c r="P25" t="n">
-        <v>294.0599074991059</v>
+        <v>96.8137845396059</v>
       </c>
       <c r="Q25" t="n">
-        <v>470.796902104995</v>
+        <v>151.6631966586749</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_6_9_24</t>
+          <t>model_6_9_0</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9803586802489048</v>
+        <v>0.9947971664559808</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7860282298129475</v>
+        <v>0.8239938767364394</v>
       </c>
       <c r="D26" t="n">
-        <v>0.998849363687711</v>
+        <v>0.9885340340177075</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9999999999999502</v>
+        <v>0.9647428320906493</v>
       </c>
       <c r="F26" t="n">
-        <v>0.999838076967566</v>
+        <v>0.9803830499686018</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1313415956155349</v>
+        <v>0.03479137186570207</v>
       </c>
       <c r="H26" t="n">
-        <v>1.430830212490227</v>
+        <v>1.176953756697108</v>
       </c>
       <c r="I26" t="n">
-        <v>0.002016523331766439</v>
+        <v>0.0242712761209244</v>
       </c>
       <c r="J26" t="n">
-        <v>4.236779126947714e-13</v>
+        <v>0.05761599503513221</v>
       </c>
       <c r="K26" t="n">
-        <v>0.001008261666095058</v>
+        <v>0.04094359872063129</v>
       </c>
       <c r="L26" t="n">
-        <v>0.2172353504365722</v>
+        <v>0.3760853711175814</v>
       </c>
       <c r="M26" t="n">
-        <v>0.3624108105665929</v>
+        <v>0.186524453800841</v>
       </c>
       <c r="N26" t="n">
-        <v>1.003895798958895</v>
+        <v>1.005946095478879</v>
       </c>
       <c r="O26" t="n">
-        <v>0.3778393890662132</v>
+        <v>0.1944651859579913</v>
       </c>
       <c r="P26" t="n">
-        <v>294.0599074991059</v>
+        <v>96.71677171567252</v>
       </c>
       <c r="Q26" t="n">
-        <v>470.796902104995</v>
+        <v>151.5661838347416</v>
       </c>
     </row>
   </sheetData>
